--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD92BC4-83D2-854B-B4FF-6F39764C968C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB5151-2CBB-344C-A59F-A128778BA1E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>programming</t>
   </si>
@@ -52,9 +52,6 @@
     <t>deep-learning-backprop</t>
   </si>
   <si>
-    <t>gaussian-beams</t>
-  </si>
-  <si>
     <t>fourier-analysis-of-digital-images</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>c-vs-python-bubble-sort-performance</t>
   </si>
   <si>
-    <t>information-theory-basics</t>
-  </si>
-  <si>
     <t>localization-error</t>
   </si>
   <si>
@@ -85,33 +79,21 @@
     <t>how-to-install-c-kernel-in-jupyter</t>
   </si>
   <si>
-    <t>stochastic-gradient-descent</t>
-  </si>
-  <si>
     <t>introduction-to-fast-fourier-transforms-fft</t>
   </si>
   <si>
-    <t>simulating-a-transformer-in-ltspice</t>
-  </si>
-  <si>
     <t>learning-theory</t>
   </si>
   <si>
     <t>electric-and-magnetic-fields-in-a-dielectric-medium</t>
   </si>
   <si>
-    <t>solving-an-lrc-circuit</t>
-  </si>
-  <si>
     <t>fundamentals-of-deep-learning</t>
   </si>
   <si>
     <t>characterizing-digital-ccdcmos-light-sensors</t>
   </si>
   <si>
-    <t>recurrent-neural-networks</t>
-  </si>
-  <si>
     <t>brownian-motion-the-langevin-equation</t>
   </si>
   <si>
@@ -229,23 +211,191 @@
     <t>title</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Clayton Seitz</t>
-  </si>
-  <si>
-    <t>David McAllester</t>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>The Python/C API</t>
+  </si>
+  <si>
+    <t>TCP/IP Networking Programming</t>
+  </si>
+  <si>
+    <t>Introduction to C</t>
+  </si>
+  <si>
+    <t>C/Python Bubble Sort</t>
+  </si>
+  <si>
+    <t>C Kernel in Jupyter</t>
+  </si>
+  <si>
+    <t>Attention is all you need</t>
+  </si>
+  <si>
+    <t>Backpropagation</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Learning Theory</t>
+  </si>
+  <si>
+    <t>Deep Learning Fundamentals</t>
+  </si>
+  <si>
+    <t>Actor-Critic Algorithms</t>
+  </si>
+  <si>
+    <t>Alpha-Beta Algorithm</t>
+  </si>
+  <si>
+    <t>Alpha-Go</t>
+  </si>
+  <si>
+    <t>Alpha-Star</t>
+  </si>
+  <si>
+    <t>Backpropagation 2</t>
+  </si>
+  <si>
+    <t>solving-an-lrc-circuits</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks 2</t>
+  </si>
+  <si>
+    <t>Mode Collapse</t>
+  </si>
+  <si>
+    <t>Contrasive GANs</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>Graphical Algorithms</t>
+  </si>
+  <si>
+    <t>Graphical Algorithms 2</t>
+  </si>
+  <si>
+    <t>Graphical Algorithms 3</t>
+  </si>
+  <si>
+    <t>Double Descent</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>Early Stopping</t>
+  </si>
+  <si>
+    <t>Early Stopping 2</t>
+  </si>
+  <si>
+    <t>EDF Framework</t>
+  </si>
+  <si>
+    <t>Einstein Notation</t>
+  </si>
+  <si>
+    <t>Evidence Lower Bound</t>
+  </si>
+  <si>
+    <t>Gradient Flow</t>
+  </si>
+  <si>
+    <t>Deep Learning Frameworks</t>
+  </si>
+  <si>
+    <t>Deep Learning Fundamentals 2</t>
+  </si>
+  <si>
+    <t>GANs</t>
+  </si>
+  <si>
+    <t>GANs 2</t>
+  </si>
+  <si>
+    <t>Gaussian RDAs</t>
+  </si>
+  <si>
+    <t>Thermodynamics in Deep Learning</t>
+  </si>
+  <si>
+    <t>Highway</t>
+  </si>
+  <si>
+    <t>History of Deep Learning</t>
+  </si>
+  <si>
+    <t>Implicit Regularization</t>
+  </si>
+  <si>
+    <t>Optical Instrumentation</t>
+  </si>
+  <si>
+    <t>Mean Squared Displacement</t>
+  </si>
+  <si>
+    <t>Localization Errror</t>
+  </si>
+  <si>
+    <t>1D Fast Fourier Transforms (FFT)</t>
+  </si>
+  <si>
+    <t>EM-Fields in a Dielectric</t>
+  </si>
+  <si>
+    <t>Light Sensors</t>
+  </si>
+  <si>
+    <t>The Langevin Equation</t>
+  </si>
+  <si>
+    <t>Electrodynamics in Isotropic Media</t>
+  </si>
+  <si>
+    <t>Photon Statistics</t>
+  </si>
+  <si>
+    <t>Neuroelectronics</t>
+  </si>
+  <si>
+    <t>2D Fast Fourier Transforms (FFT)</t>
+  </si>
+  <si>
+    <t>RC Frequency Response</t>
+  </si>
+  <si>
+    <t>Analog Impulse Response</t>
+  </si>
+  <si>
+    <t>LRC Circuits</t>
+  </si>
+  <si>
+    <t>Circuits</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Decoupling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,6 +526,18 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -722,9 +884,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1079,36 +1242,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="3" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1119,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1127,10 +1291,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1138,10 +1302,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1149,10 +1313,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1163,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1182,10 +1346,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1193,10 +1357,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1204,10 +1368,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1215,10 +1379,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1229,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1240,7 +1404,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1248,10 +1412,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1259,10 +1423,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1270,10 +1434,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1281,10 +1445,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1292,10 +1456,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1303,10 +1467,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1314,10 +1478,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1325,10 +1489,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1336,10 +1500,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1347,10 +1511,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1358,10 +1522,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1369,10 +1533,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1380,10 +1544,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1391,10 +1555,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1402,10 +1566,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1413,10 +1577,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1424,10 +1588,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1435,10 +1599,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1446,10 +1610,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1457,10 +1621,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1468,10 +1632,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1479,10 +1643,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1490,10 +1654,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1501,10 +1665,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1512,10 +1676,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1523,10 +1687,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1534,10 +1698,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1545,10 +1709,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1556,10 +1720,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1567,10 +1731,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1578,10 +1742,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1589,10 +1753,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1600,43 +1764,43 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1644,10 +1808,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1655,10 +1819,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1666,10 +1830,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1677,10 +1841,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -1688,10 +1852,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1699,115 +1863,61 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB5151-2CBB-344C-A59F-A128778BA1E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951C28D-5824-3041-B73C-2D85C859E0F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
   <si>
     <t>programming</t>
   </si>
@@ -389,6 +389,15 @@
   </si>
   <si>
     <t>Decoupling</t>
+  </si>
+  <si>
+    <t>bean-action-potentials</t>
+  </si>
+  <si>
+    <t>Action Potentials - Review</t>
+  </si>
+  <si>
+    <t>neuroscience</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,6 +1925,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951C28D-5824-3041-B73C-2D85C859E0F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C6229-6557-0447-8877-5E9727AA9970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
   <si>
     <t>programming</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>neuroscience</t>
+  </si>
+  <si>
+    <t>natural-image-statistics</t>
+  </si>
+  <si>
+    <t>Natural Image Statistics</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1936,6 +1942,17 @@
         <v>125</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C6229-6557-0447-8877-5E9727AA9970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7EE38F-8432-B443-9083-275A5BF52237}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
   <si>
     <t>programming</t>
   </si>
@@ -404,6 +404,24 @@
   </si>
   <si>
     <t>Natural Image Statistics</t>
+  </si>
+  <si>
+    <t>information-theory-elements</t>
+  </si>
+  <si>
+    <t>Elements of Information Theory</t>
+  </si>
+  <si>
+    <t>information-theory</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NURB 31800</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,9 +1287,10 @@
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1281,8 +1300,11 @@
       <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1314,11 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1303,8 +1328,11 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1342,11 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1325,8 +1356,11 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1336,8 +1370,11 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1347,8 +1384,11 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1358,8 +1398,11 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1369,8 +1412,11 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1380,8 +1426,11 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1391,8 +1440,11 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1402,8 +1454,11 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1424,8 +1482,11 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1435,8 +1496,11 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1446,8 +1510,11 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1457,8 +1524,11 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1468,8 +1538,11 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1479,8 +1552,11 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1490,8 +1566,11 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1501,8 +1580,11 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1512,8 +1594,11 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1523,8 +1608,11 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1534,8 +1622,11 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1545,8 +1636,11 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1556,8 +1650,11 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1567,8 +1664,11 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1578,8 +1678,11 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1589,8 +1692,11 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1600,8 +1706,11 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1611,8 +1720,11 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1622,8 +1734,11 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1633,8 +1748,11 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1644,8 +1762,11 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1655,8 +1776,11 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1666,8 +1790,11 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1677,8 +1804,11 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1688,8 +1818,11 @@
       <c r="C38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1699,8 +1832,11 @@
       <c r="C39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1710,8 +1846,11 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1721,8 +1860,11 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1732,8 +1874,11 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1743,8 +1888,11 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1754,8 +1902,11 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1765,8 +1916,11 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1776,8 +1930,11 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1787,8 +1944,11 @@
       <c r="C47" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1798,8 +1958,11 @@
       <c r="C48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1809,8 +1972,11 @@
       <c r="C49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1820,8 +1986,11 @@
       <c r="C50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1831,8 +2000,11 @@
       <c r="C51" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -1842,8 +2014,11 @@
       <c r="C52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1853,8 +2028,11 @@
       <c r="C53" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1864,8 +2042,11 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1875,8 +2056,11 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1886,8 +2070,11 @@
       <c r="C56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1897,8 +2084,11 @@
       <c r="C57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1908,8 +2098,11 @@
       <c r="C58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1919,8 +2112,11 @@
       <c r="C59" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -1930,8 +2126,11 @@
       <c r="C60" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -1941,8 +2140,11 @@
       <c r="C61" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -1951,6 +2153,23 @@
       </c>
       <c r="C62" t="s">
         <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7EE38F-8432-B443-9083-275A5BF52237}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5790CF7-86A5-B845-B52B-03CAA7A4209D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="760" windowWidth="33520" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>programming</t>
   </si>
@@ -422,13 +422,19 @@
   </si>
   <si>
     <t>NURB 31800</t>
+  </si>
+  <si>
+    <t>CMSC-31230</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -571,6 +577,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -917,10 +930,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1278,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1413,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1427,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1455,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1483,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1497,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1511,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1581,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1595,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1623,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1637,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1651,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1665,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1679,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1707,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1735,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1749,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1763,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1777,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1791,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1847,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1861,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1875,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1888,8 +1902,8 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>132</v>
+      <c r="D43" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1902,8 +1916,8 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>132</v>
+      <c r="D44" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1916,8 +1930,8 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>132</v>
+      <c r="D45" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1930,8 +1944,8 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>132</v>
+      <c r="D46" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2155,7 +2169,7 @@
         <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2169,7 +2183,7 @@
         <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5790CF7-86A5-B845-B52B-03CAA7A4209D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08077505-3F05-3B4E-B4D0-182AC222D7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="760" windowWidth="33520" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t>programming</t>
   </si>
@@ -428,6 +428,30 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>dl-ps1</t>
+  </si>
+  <si>
+    <t>dl-ps2</t>
+  </si>
+  <si>
+    <t>dl-ps3</t>
+  </si>
+  <si>
+    <t>dl-ps4</t>
+  </si>
+  <si>
+    <t>Training a MLP</t>
+  </si>
+  <si>
+    <t>Training a CNN</t>
+  </si>
+  <si>
+    <t>Training a GAN/VAE</t>
+  </si>
+  <si>
+    <t>Thermodynamics of SGD</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2186,6 +2210,62 @@
         <v>135</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08077505-3F05-3B4E-B4D0-182AC222D7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027C240-F123-5C42-81D6-84607FC98743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="760" windowWidth="33520" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
   <si>
     <t>programming</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>Thermodynamics of SGD</t>
+  </si>
+  <si>
+    <t>What I Believe - Einstein</t>
+  </si>
+  <si>
+    <t>what-i-believe</t>
+  </si>
+  <si>
+    <t>philosophy</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2266,6 +2275,20 @@
         <v>134</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027C240-F123-5C42-81D6-84607FC98743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08606E1A-D324-7141-91C9-5A8E34DCA74C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="160">
   <si>
     <t>programming</t>
   </si>
@@ -37,9 +37,6 @@
     <t>python-c-api</t>
   </si>
   <si>
-    <t>attention-is-all-you-need</t>
-  </si>
-  <si>
     <t>optical-instrumentation</t>
   </si>
   <si>
@@ -82,15 +79,9 @@
     <t>introduction-to-fast-fourier-transforms-fft</t>
   </si>
   <si>
-    <t>learning-theory</t>
-  </si>
-  <si>
     <t>electric-and-magnetic-fields-in-a-dielectric-medium</t>
   </si>
   <si>
-    <t>fundamentals-of-deep-learning</t>
-  </si>
-  <si>
     <t>characterizing-digital-ccdcmos-light-sensors</t>
   </si>
   <si>
@@ -232,18 +223,12 @@
     <t>C Kernel in Jupyter</t>
   </si>
   <si>
-    <t>Attention is all you need</t>
-  </si>
-  <si>
     <t>Backpropagation</t>
   </si>
   <si>
     <t>Regularization</t>
   </si>
   <si>
-    <t>Learning Theory</t>
-  </si>
-  <si>
     <t>Deep Learning Fundamentals</t>
   </si>
   <si>
@@ -418,9 +403,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>NURB 31800</t>
   </si>
   <si>
@@ -461,13 +443,70 @@
   </si>
   <si>
     <t>philosophy</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>computer-science</t>
+  </si>
+  <si>
+    <t>communist-manifesto</t>
+  </si>
+  <si>
+    <t>Communist Manifesto</t>
+  </si>
+  <si>
+    <t>country-living</t>
+  </si>
+  <si>
+    <t>Country Living</t>
+  </si>
+  <si>
+    <t>nurb-discussion-1</t>
+  </si>
+  <si>
+    <t>Neurobiology Discussion 1</t>
+  </si>
+  <si>
+    <t>unified-coding</t>
+  </si>
+  <si>
+    <t>unified-coding-supplement</t>
+  </si>
+  <si>
+    <t>Unified Coding</t>
+  </si>
+  <si>
+    <t>Unified Coding SI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,23 +642,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -965,9 +1010,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1323,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,963 +1379,1218 @@
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D69" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="E69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>132</v>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08606E1A-D324-7141-91C9-5A8E34DCA74C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A91E9FA-C09D-7C44-9E73-133925874E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="160">
-  <si>
-    <t>programming</t>
-  </si>
-  <si>
-    <t>deep-learning</t>
-  </si>
-  <si>
-    <t>physics</t>
-  </si>
-  <si>
-    <t>electronics</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
   <si>
     <t>python-c-api</t>
   </si>
@@ -82,18 +70,12 @@
     <t>electric-and-magnetic-fields-in-a-dielectric-medium</t>
   </si>
   <si>
-    <t>characterizing-digital-ccdcmos-light-sensors</t>
-  </si>
-  <si>
     <t>brownian-motion-the-langevin-equation</t>
   </si>
   <si>
     <t>a3c</t>
   </si>
   <si>
-    <t>electrodynamics-of-isotropic-media</t>
-  </si>
-  <si>
     <t>alphabeta</t>
   </si>
   <si>
@@ -340,15 +322,9 @@
     <t>EM-Fields in a Dielectric</t>
   </si>
   <si>
-    <t>Light Sensors</t>
-  </si>
-  <si>
     <t>The Langevin Equation</t>
   </si>
   <si>
-    <t>Electrodynamics in Isotropic Media</t>
-  </si>
-  <si>
     <t>Photon Statistics</t>
   </si>
   <si>
@@ -382,9 +358,6 @@
     <t>Action Potentials - Review</t>
   </si>
   <si>
-    <t>neuroscience</t>
-  </si>
-  <si>
     <t>natural-image-statistics</t>
   </si>
   <si>
@@ -397,21 +370,6 @@
     <t>Elements of Information Theory</t>
   </si>
   <si>
-    <t>information-theory</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>NURB 31800</t>
-  </si>
-  <si>
-    <t>CMSC-31230</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>dl-ps1</t>
   </si>
   <si>
@@ -442,9 +400,6 @@
     <t>what-i-believe</t>
   </si>
   <si>
-    <t>philosophy</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -469,9 +424,6 @@
     <t>Algorithms</t>
   </si>
   <si>
-    <t>computer-science</t>
-  </si>
-  <si>
     <t>communist-manifesto</t>
   </si>
   <si>
@@ -500,6 +452,30 @@
   </si>
   <si>
     <t>Unified Coding SI</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Information Theory</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Physics</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,1214 +1355,973 @@
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="2" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A91E9FA-C09D-7C44-9E73-133925874E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA092CB-2860-8B40-8F64-F0B3D85586DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="154">
   <si>
     <t>python-c-api</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>Physics</t>
+  </si>
+  <si>
+    <t>basic-visual-coding</t>
+  </si>
+  <si>
+    <t>Basic Visual Coding</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2324,6 +2330,20 @@
         <v>129</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA092CB-2860-8B40-8F64-F0B3D85586DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13D49C-B041-F746-B9D6-E6CDBFFBB957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="156">
   <si>
     <t>python-c-api</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>Basic Visual Coding</t>
+  </si>
+  <si>
+    <t>theoretical-neuroscience</t>
+  </si>
+  <si>
+    <t>Theoretical Neuroscience</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2344,6 +2350,20 @@
         <v>128</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13D49C-B041-F746-B9D6-E6CDBFFBB957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50052174-B077-6243-B090-88229D4C4985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
   <si>
     <t>python-c-api</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>Theoretical Neuroscience</t>
+  </si>
+  <si>
+    <t>nurb-discussion-2</t>
+  </si>
+  <si>
+    <t>Neurobiology Discussion 2</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2364,6 +2370,20 @@
         <v>131</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50052174-B077-6243-B090-88229D4C4985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBFEE70-F765-A247-B218-0774B310DE64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="160">
   <si>
     <t>python-c-api</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>Neurobiology Discussion 2</t>
+  </si>
+  <si>
+    <t>elements-of-neural-analysis</t>
+  </si>
+  <si>
+    <t>Elements of Neural Analysis</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2384,6 +2390,20 @@
         <v>129</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBFEE70-F765-A247-B218-0774B310DE64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EC2868-7DD5-704A-8B7C-55FE8F90FD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="162">
   <si>
     <t>python-c-api</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>Elements of Neural Analysis</t>
+  </si>
+  <si>
+    <t>comp-neuro-vision</t>
+  </si>
+  <si>
+    <t>Computational Neuroscience of Vision</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2404,6 +2410,20 @@
         <v>131</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EC2868-7DD5-704A-8B7C-55FE8F90FD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5366C8-8E5D-7342-9318-CB6FB31BE681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
   <si>
     <t>python-c-api</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>Computational Neuroscience of Vision</t>
+  </si>
+  <si>
+    <t>infor-theory-ps1</t>
+  </si>
+  <si>
+    <t>Information Theory PS1</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2424,6 +2430,20 @@
         <v>131</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5366C8-8E5D-7342-9318-CB6FB31BE681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0BF7C3-FFF1-5C4B-B18E-E4FC23B2895A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,10 @@
     <t>Computational Neuroscience of Vision</t>
   </si>
   <si>
-    <t>infor-theory-ps1</t>
-  </si>
-  <si>
     <t>Information Theory PS1</t>
+  </si>
+  <si>
+    <t>info-theory-ps1</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>149</v>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0BF7C3-FFF1-5C4B-B18E-E4FC23B2895A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A9B43-A284-0748-8D32-90EC9E0ACB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="169">
   <si>
     <t>python-c-api</t>
   </si>
@@ -512,6 +512,21 @@
   </si>
   <si>
     <t>info-theory-ps1</t>
+  </si>
+  <si>
+    <t>beta-cell-signaling</t>
+  </si>
+  <si>
+    <t>Beta Cell Signaling</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>plant-biology</t>
+  </si>
+  <si>
+    <t>Plant Biology</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2444,6 +2459,34 @@
         <v>128</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A9B43-A284-0748-8D32-90EC9E0ACB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F94457-7920-EC41-81AF-E31676D2BD91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="172">
   <si>
     <t>python-c-api</t>
   </si>
@@ -527,6 +527,15 @@
   </si>
   <si>
     <t>Plant Biology</t>
+  </si>
+  <si>
+    <t>voltron</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>paper</t>
   </si>
 </sst>
 </file>
@@ -1395,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2487,6 +2496,20 @@
         <v>131</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F94457-7920-EC41-81AF-E31676D2BD91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A0E44E-62CA-EA42-95FE-2AE2A64E1E68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="174">
   <si>
     <t>python-c-api</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>paper</t>
+  </si>
+  <si>
+    <t>gabor-jets</t>
+  </si>
+  <si>
+    <t>Gabor Jets</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,6 +2516,20 @@
         <v>171</v>
       </c>
     </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A0E44E-62CA-EA42-95FE-2AE2A64E1E68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74220E91-83E2-B84D-A92E-FE579499D10C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="176">
   <si>
     <t>python-c-api</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>Gabor Jets</t>
+  </si>
+  <si>
+    <t>gabor-representation</t>
+  </si>
+  <si>
+    <t>Gabor Representation</t>
   </si>
 </sst>
 </file>
@@ -1410,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2530,6 +2536,20 @@
         <v>171</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74220E91-83E2-B84D-A92E-FE579499D10C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC41917B-D559-3D49-A8D1-314171D53A35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,9 +229,6 @@
     <t>Backpropagation 2</t>
   </si>
   <si>
-    <t>solving-an-lrc-circuits</t>
-  </si>
-  <si>
     <t>Convolutional Neural Networks</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>Gabor Representation</t>
+  </si>
+  <si>
+    <t>solving-an-lrc-circuit</t>
   </si>
 </sst>
 </file>
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1441,7 @@
         <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1452,10 +1452,10 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1466,10 +1466,10 @@
         <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1480,10 +1480,10 @@
         <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1494,10 +1494,10 @@
         <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1508,10 +1508,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1522,10 +1522,10 @@
         <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1536,10 +1536,10 @@
         <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1550,10 +1550,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1564,10 +1564,10 @@
         <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1578,10 +1578,10 @@
         <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1592,10 +1592,10 @@
         <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1606,10 +1606,10 @@
         <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1620,10 +1620,10 @@
         <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1631,13 +1631,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1645,13 +1645,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1659,13 +1659,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1673,13 +1673,13 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1687,13 +1687,13 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,13 +1701,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1715,13 +1715,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,13 +1729,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1743,13 +1743,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1757,13 +1757,13 @@
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1771,13 +1771,13 @@
         <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,13 +1785,13 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1799,13 +1799,13 @@
         <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,13 +1813,13 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1827,13 +1827,13 @@
         <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1841,13 +1841,13 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1855,13 +1855,13 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1869,13 +1869,13 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1883,13 +1883,13 @@
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1897,13 +1897,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1914,10 +1914,10 @@
         <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,13 +1925,13 @@
         <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,13 +1939,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,13 +1953,13 @@
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1967,13 +1967,13 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1981,13 +1981,13 @@
         <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,13 +1995,13 @@
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,13 +2009,13 @@
         <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2023,13 +2023,13 @@
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2051,13 +2051,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2065,13 +2065,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,13 +2079,13 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2093,13 +2093,13 @@
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2107,13 +2107,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2121,13 +2121,13 @@
         <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2135,13 +2135,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,13 +2149,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2163,13 +2163,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2177,377 +2177,377 @@
         <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC41917B-D559-3D49-A8D1-314171D53A35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244ADD0-379F-B943-A907-D331D5253A0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="178">
   <si>
     <t>python-c-api</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>solving-an-lrc-circuit</t>
+  </si>
+  <si>
+    <t>gabor-theory</t>
+  </si>
+  <si>
+    <t>Gabor Theory</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2550,6 +2556,20 @@
         <v>170</v>
       </c>
     </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244ADD0-379F-B943-A907-D331D5253A0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4D709-475F-7548-83A9-CF4A66AB2505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1380" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="180">
   <si>
     <t>python-c-api</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>Gabor Theory</t>
+  </si>
+  <si>
+    <t>info-theory-ps2</t>
+  </si>
+  <si>
+    <t>Information Theory PS2</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2570,6 +2576,20 @@
         <v>130</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4D709-475F-7548-83A9-CF4A66AB2505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E6545B-46B9-434F-AC58-77E7697E8543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1380" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="182">
   <si>
     <t>python-c-api</t>
   </si>
@@ -560,6 +560,12 @@
   </si>
   <si>
     <t>Information Theory PS2</t>
+  </si>
+  <si>
+    <t>utilitarianism</t>
+  </si>
+  <si>
+    <t>Utilitarianism</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2590,6 +2596,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E6545B-46B9-434F-AC58-77E7697E8543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B305CA-DF82-E74D-BCAC-003638E6974F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="184">
   <si>
     <t>python-c-api</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>Utilitarianism</t>
+  </si>
+  <si>
+    <t>info-theory-ps3</t>
+  </si>
+  <si>
+    <t>Information Theory PS3</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2610,6 +2616,20 @@
         <v>130</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B305CA-DF82-E74D-BCAC-003638E6974F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5A5230-4437-8A44-8B2C-65089AC054D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="186">
   <si>
     <t>python-c-api</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>Information Theory PS3</t>
+  </si>
+  <si>
+    <t>scherer-rotation-summary</t>
+  </si>
+  <si>
+    <t>Scherer Rotation Summary</t>
   </si>
 </sst>
 </file>
@@ -1440,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2630,6 +2636,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5A5230-4437-8A44-8B2C-65089AC054D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED6ECC-D65B-EA44-BCEC-765C3AB6482D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="188">
   <si>
     <t>python-c-api</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>Scherer Rotation Summary</t>
+  </si>
+  <si>
+    <t>info-theory-ps4</t>
+  </si>
+  <si>
+    <t>Information Theory PS4</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2650,6 +2656,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED6ECC-D65B-EA44-BCEC-765C3AB6482D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA764EC6-52A5-4349-8612-FBB355A72DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="190">
   <si>
     <t>python-c-api</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>Information Theory PS4</t>
+  </si>
+  <si>
+    <t>neurobio-final</t>
+  </si>
+  <si>
+    <t>Neurobiology Exam</t>
   </si>
 </sst>
 </file>
@@ -1452,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2670,6 +2676,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA764EC6-52A5-4349-8612-FBB355A72DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D5797-1EEC-3948-8A45-55A390265361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="192">
   <si>
     <t>python-c-api</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>Neurobiology Exam</t>
+  </si>
+  <si>
+    <t>info-theory-final</t>
+  </si>
+  <si>
+    <t>Information Theory Final</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2690,6 +2696,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/docs.xlsx
+++ b/docs/docs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="196">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -602,6 +602,12 @@
   </si>
   <si>
     <t xml:space="preserve">Thesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thesis-slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis Slides</t>
   </si>
 </sst>
 </file>
@@ -722,13 +728,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
+      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
@@ -1982,6 +1988,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
